--- a/src/attributions/attributions_ig_traj_210.xlsx
+++ b/src/attributions/attributions_ig_traj_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG7"/>
+  <dimension ref="A1:GG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,325 +1004,325 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.001193787216236416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08147381023457996</v>
+        <v>-0.03176622705143634</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02244062864239819</v>
+        <v>0.04675460463027152</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03950753569240531</v>
+        <v>0.001719399652608754</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06817278337583813</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.05095402661649654</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1379704932931465</v>
+        <v>-0.08355248495987561</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03190654350914859</v>
+        <v>0.07987069717240901</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03236614005461871</v>
+        <v>0.0134610366822556</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.04244513535470627</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.04641001774260204</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002976641595249497</v>
+        <v>-0.06981910458677119</v>
       </c>
       <c r="V2" t="n">
         <v>-0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03227568838244183</v>
+        <v>-0.059961772888305</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.01276155007425837</v>
+        <v>0.04038639666372264</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03786739840820031</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.03453305373030875</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.07618662377025361</v>
+        <v>0.1348631730333189</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.08025628653129645</v>
+        <v>-0.07581381569304604</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.07033464061264058</v>
+        <v>0.0868899280446019</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.05973417932493769</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.04529627236587581</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.05664614692644921</v>
+        <v>0.03280493941394704</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02775233923027941</v>
+        <v>-0.1341901883814222</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.08554629488867695</v>
+        <v>-0.03971001024766035</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.03241320187757929</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.04636125128707971</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.2959337064885059</v>
+        <v>0.116896325054711</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1533822526376397</v>
+        <v>0.2586565637836207</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0749497504469169</v>
+        <v>0.02459741991321411</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.2364561898041569</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
         <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.103980535840311</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.02310131894367078</v>
+        <v>-0.02202918457640722</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.06475496041138583</v>
+        <v>-0.05008065577641017</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.06147201371317085</v>
+        <v>-0.06633937055090376</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.05564443900272609</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.1687588305158048</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.1387659358836446</v>
+        <v>-0.07174166222710272</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1863665750191154</v>
+        <v>0.2461792716505744</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.1185229502725343</v>
+        <v>-0.08652181857316696</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.14589612618517</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.0038721029729002</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.06688406416796124</v>
+        <v>0.01610520434604504</v>
       </c>
       <c r="BX2" t="n">
         <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01217281158279626</v>
+        <v>-0.0908993942798397</v>
       </c>
       <c r="BZ2" t="n">
         <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.007567728448832961</v>
+        <v>-0.001439207982325534</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.08906971221596409</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.02601759581868797</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.1030480974169161</v>
+        <v>-0.003206653773661861</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.05269641117422519</v>
+        <v>0.0512741193611211</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.03758465771719019</v>
+        <v>-0.003949778520587081</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.04011965013155507</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.06853118869658489</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.07746113969381624</v>
+        <v>-0.03086507457954725</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0651220777580967</v>
+        <v>0.1931310415672225</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.002427008052938261</v>
+        <v>-0.01559701429087009</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0740701567962891</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.06062823194056709</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.09514113256111391</v>
+        <v>-0.001868126578830636</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.04605269628896406</v>
+        <v>0.06755866393404866</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.03311157119411122</v>
+        <v>-0.01172598852473099</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.02279115143329648</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
@@ -1331,52 +1331,52 @@
         <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0</v>
+        <v>0.03019665437549284</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.07078987668769031</v>
+        <v>0.09762022379601383</v>
       </c>
       <c r="DH2" t="n">
         <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.05648469631224809</v>
+        <v>0.1575054114414974</v>
       </c>
       <c r="DJ2" t="n">
         <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.03999390772017089</v>
+        <v>-0.005742348105616061</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.03581419665624511</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0</v>
+        <v>-0.09427788303372858</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.003797490546478043</v>
+        <v>-0.1581331416059771</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006896248949181076</v>
+        <v>-0.09702800608372836</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.1136562603334643</v>
+        <v>0.04666649522780864</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0006083984861444354</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
         <v>-0</v>
@@ -1385,79 +1385,79 @@
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.04961171628328779</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0002448916581373443</v>
+        <v>-0.03940179849092976</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.04351894881715489</v>
+        <v>0.05544330562811055</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.07030607531326638</v>
+        <v>-0.0621986604290548</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0544150628479829</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.0893371626366513</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.08696307268140455</v>
+        <v>0.005732607076909825</v>
       </c>
       <c r="EI2" t="n">
         <v>-0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.1079033212661757</v>
+        <v>0.00821349649413952</v>
       </c>
       <c r="EK2" t="n">
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.0474536875213542</v>
+        <v>-0.0201628378676395</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.08171685591132262</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.09649507272428294</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.02493052928453651</v>
+        <v>0.06543923268520509</v>
       </c>
       <c r="ER2" t="n">
         <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.09745695617561578</v>
+        <v>-0.02334538861710722</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.01197054948742701</v>
+        <v>-0.06832039018699559</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.07721801901144047</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -1466,79 +1466,79 @@
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0</v>
+        <v>0.07317910435896821</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.09043754434793158</v>
+        <v>-0.02503824337874219</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02024948913983194</v>
+        <v>0.06093291255370992</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.0444432281919722</v>
+        <v>-0.01579695063246935</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.03815041620593211</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.06682111254390613</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.1487757749009031</v>
+        <v>-0.1185538590338825</v>
       </c>
       <c r="FJ2" t="n">
         <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.1350813299834805</v>
+        <v>0.03819359718254392</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.003098202686653506</v>
+        <v>-0.07098261355850792</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00157870793829427</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.05257121889121086</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0302442074446915</v>
+        <v>-0.01080581519495876</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1086340839929901</v>
+        <v>0.07416194644763552</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.02815956177447216</v>
+        <v>0.01617342770419621</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.02610241445021585</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.1387075380829542</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.07094666169451114</v>
+        <v>0.0441761037370606</v>
       </c>
       <c r="GB2" t="n">
         <v>0</v>
@@ -1559,24 +1559,24 @@
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.0370575003157095</v>
+        <v>-0.06533556648042296</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.101035549196887</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1585,46 +1585,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03428013265965178</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01358737438585726</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01606442699203504</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02977815264049608</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01753336181750562</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.02038497400423611</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1633,22 +1633,22 @@
         <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01353237403354107</v>
+        <v>-0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.05998806697903885</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08507255048361174</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01956452045094951</v>
+        <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04440799812732438</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.005245649594160877</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1690,25 +1690,25 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01380740088457132</v>
+        <v>-0</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.02419816599167</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.007739215429190785</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
         <v>-0</v>
@@ -1717,22 +1717,22 @@
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.004336954670794548</v>
+        <v>-0</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.07813595814776805</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.03795443567141871</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
@@ -1741,22 +1741,22 @@
         <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.06349998199209593</v>
+        <v>-0</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.04349184512888251</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.02917689100229596</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -1768,49 +1768,49 @@
         <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06238178007703545</v>
+        <v>-0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0.02339887724349256</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.02646525832938108</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.02385632656771153</v>
+        <v>-0</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.005892399308508923</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0326611516093024</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
         <v>0</v>
@@ -1819,25 +1819,25 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.02323901811425437</v>
+        <v>-0</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.00174152001615638</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0.01441075199320066</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
@@ -1846,34 +1846,34 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.02308894497696806</v>
+        <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.03315476839474357</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.02737493010739437</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
         <v>0</v>
@@ -1882,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.02973343027587418</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.001672609341223934</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.01063113105443098</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.02361574972138093</v>
+        <v>-0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02753157607687366</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.006362396528454132</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -1930,130 +1930,130 @@
         <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.006255031277066266</v>
+        <v>-0</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.02572728667354341</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.1323454014413868</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.0008619535322471844</v>
+        <v>-0</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.04176835270889023</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01945847814322073</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02594768770356659</v>
+        <v>-0</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.01240975701181446</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0131715479070365</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.07111768592818975</v>
+        <v>-0</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.007853304824544631</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.02327133709978325</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.02134993915794392</v>
+        <v>-0</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0007768497131602325</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0.02147913690060945</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
         <v>0</v>
@@ -2062,52 +2062,52 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.00653088815954043</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0.002630212264704653</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.03903211744704912</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.03364078471435484</v>
+        <v>-0</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0.02507212083300431</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.01787521591368392</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2128,24 +2128,24 @@
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0.01880431230407436</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0.02145527746780267</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>-0.1557908849457313</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2154,22 +2154,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0874692529096439</v>
+        <v>0.1105293213611132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02462318157081949</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04526680715752304</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0.03407417619146857</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>-0.2554696581813208</v>
       </c>
       <c r="K4" t="n">
         <v>-0</v>
@@ -2181,25 +2181,25 @@
         <v>-0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03647581597047318</v>
+        <v>0.0452982524212725</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.07132081675579949</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.07523004716677344</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0</v>
+        <v>-0.1098127438374159</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0.001195520584309683</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
@@ -2208,76 +2208,76 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1308981919399582</v>
+        <v>-0.228810166186845</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1720690305538982</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04937995209591558</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.009437031194102889</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>-0.06258139547437422</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06051293134707793</v>
+        <v>-0.2425063739962455</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03380572649381357</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.01533364491648372</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>0.0695304381746201</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>0.09307175314884071</v>
       </c>
       <c r="AL4" t="n">
         <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0133489636752213</v>
+        <v>0.001784938409021955</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02553135247216394</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.006026361855974672</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0.03894025430496174</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0.02784974404781579</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.1189041012866418</v>
+        <v>-0.4749614730173443</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.1072290638523081</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.04332387165011867</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>0.01160081841774086</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0.1499161051648461</v>
       </c>
       <c r="BD4" t="n">
         <v>-0</v>
@@ -2316,22 +2316,22 @@
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.005371121234249478</v>
+        <v>0.3189654502355407</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1842134950550028</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.08530137717273063</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0.1818349823073352</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0.1199167260992148</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
@@ -2343,49 +2343,49 @@
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06437987668908898</v>
+        <v>-0.04950304472817114</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.09532344362032423</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.1100203666430559</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0</v>
+        <v>-0.1937847980090334</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>0.08698988013324281</v>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
       </c>
       <c r="BW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.1048008875464071</v>
+        <v>-0.3330427522576888</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.06421551531053155</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.03551628868201311</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>0.08140513776592662</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0.06930503190437276</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         <v>-0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.03443318650462433</v>
+        <v>0.06743955430664297</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.02520123000925507</v>
+        <v>-0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.04630008163003791</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>-0.05376246828772878</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>-0.05263370363445782</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
@@ -2424,22 +2424,22 @@
         <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.007311063194565464</v>
+        <v>0.08841242025364331</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.06254946304862677</v>
+        <v>-0</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.06455014197345445</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>-0.04881129656122539</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>-0.1005131781823658</v>
       </c>
       <c r="CW4" t="n">
         <v>-0</v>
@@ -2448,55 +2448,55 @@
         <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.008662826062164061</v>
+        <v>0.1129585643659935</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.01895272544854306</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.0257679544227723</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0.01157259509393879</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0.06226806131852936</v>
       </c>
       <c r="DF4" t="n">
         <v>0</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
         <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.03829159220006146</v>
+        <v>0.1941615404293286</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.2113863259889171</v>
+        <v>-0</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.1286747428291046</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>-0.08883798737243626</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0.001882681267205081</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>-0</v>
@@ -2505,103 +2505,103 @@
         <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.09624577922931896</v>
+        <v>-0.02299979148953706</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.07022326600992272</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.004572084917999552</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0.05313881068687815</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>0.08816183342869303</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.08065783292069423</v>
+        <v>0.2733428908371147</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.03854873553222235</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.06304818038391777</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0</v>
+        <v>-0.04587736542154512</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>-0.002441712808822289</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
         <v>-0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.04084952400193293</v>
+        <v>0.08201925255766494</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.05439882812057539</v>
+        <v>-0</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.04364645150812316</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0</v>
+        <v>-0.06730343417780896</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>-0.07569709740416307</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.01070464091914813</v>
+        <v>0.3468704888989074</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.01806913950191661</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.009133761858922765</v>
+        <v>-0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0.006274158363708595</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0.07831869054647585</v>
       </c>
       <c r="EY4" t="n">
         <v>0</v>
@@ -2610,25 +2610,25 @@
         <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01076724011654364</v>
+        <v>0.1167651935336858</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.03827988767566516</v>
+        <v>-0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.03998397724208773</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>-0.01321401187696942</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0.2026194877178144</v>
       </c>
       <c r="FH4" t="n">
         <v>-0</v>
@@ -2637,25 +2637,25 @@
         <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0413704989285902</v>
+        <v>0.2784859002073903</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.1085892544986885</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.007038736569751652</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0.1278410999868808</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>-0.2400630674180453</v>
       </c>
       <c r="FQ4" t="n">
         <v>-0</v>
@@ -2664,49 +2664,49 @@
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.1188710346188189</v>
+        <v>0.470736072183114</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.02557026608754368</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.07252827966405781</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>-0.009152826463292612</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0</v>
+        <v>0.07633431349704385</v>
       </c>
       <c r="FZ4" t="n">
         <v>-0</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.06032329545439276</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.08743566058537074</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>-0.1278608653584473</v>
       </c>
     </row>
     <row r="5">
@@ -2774,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
         <v>-0</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
         <v>-0</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -2828,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
         <v>-0</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
         <v>-0</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG5" t="n">
         <v>-0</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -2909,13 +2909,13 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
         <v>-0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
         <v>-0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
@@ -2963,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
         <v>-0</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
         <v>-0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3098,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
         <v>-0</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
         <v>-0</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
         <v>-0</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
@@ -3179,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
         <v>-0</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
@@ -3206,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
         <v>-0</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
         <v>0</v>
@@ -3283,25 +3283,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04361362872941283</v>
+        <v>0.03886661979868541</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01764342762739126</v>
+        <v>0.01352096919810727</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09127718828474139</v>
+        <v>-0.05840762740991841</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03132560415131733</v>
+        <v>0.1390078209498687</v>
       </c>
       <c r="L6" t="n">
         <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001805882684111867</v>
+        <v>0.1019919940887513</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1388623210135264</v>
+        <v>-0.03965264604944183</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3337,25 +3337,25 @@
         <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004506621537568303</v>
+        <v>0.03322027410332327</v>
       </c>
       <c r="U6" t="n">
         <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04344496894306689</v>
+        <v>0.09601086274586261</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06785864898293971</v>
+        <v>0.01536604460362171</v>
       </c>
       <c r="Y6" t="n">
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA6" t="n">
         <v>-0</v>
@@ -3364,7 +3364,7 @@
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.001113899471636454</v>
+        <v>0.2042411006165603</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3373,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.07502273190494302</v>
+        <v>-0.05808373745494391</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.05321323323227616</v>
+        <v>-0.003908292324490276</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3388,55 +3388,55 @@
         <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.008364322392798511</v>
+        <v>-0.05717000449091533</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.005096115925463584</v>
+        <v>-0.009257115372342578</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.02777807866145263</v>
+        <v>-0.007539791233421567</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.04192418034816257</v>
+        <v>-0.1048951720491216</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.04610965070450083</v>
+        <v>-0.06541304041760646</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0.03694109503065785</v>
+        <v>-0.004374278448607771</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB6" t="n">
         <v>0</v>
@@ -3445,25 +3445,25 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.01971990478779721</v>
+        <v>0.06860414167075569</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.00726980340723401</v>
+        <v>0.06021910351821393</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.05149039821233006</v>
+        <v>0.02220447954415321</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
         <v>-0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.004162159998117655</v>
+        <v>-0.07634159509967256</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.01893633427419619</v>
+        <v>0.0004938058140850604</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.03516792768640284</v>
+        <v>-0.07056153907821562</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3499,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.03922035721276781</v>
+        <v>-0.007462509010096079</v>
       </c>
       <c r="BW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.03640032088794799</v>
+        <v>-0.1065881744882552</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.0269185855539898</v>
+        <v>-0.06960719167164321</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
@@ -3526,34 +3526,34 @@
         <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.01856259068466861</v>
+        <v>0.01290870599463082</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.006221201158228017</v>
+        <v>-0.01953581180896703</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0.008525691488230146</v>
+        <v>-0.02956115245611411</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01554923622200468</v>
+        <v>0.1278181672997895</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
@@ -3562,10 +3562,10 @@
         <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.007807368601331804</v>
+        <v>-0.04360940707487233</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.06049423714139142</v>
+        <v>-0.06092928065551926</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -3574,160 +3574,160 @@
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.01979945051470235</v>
+        <v>0.009732105765615194</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.008264802334686504</v>
+        <v>-0.009869868206682054</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0.01064027905458016</v>
+        <v>-0.07340125830873756</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0.02348215356880964</v>
+        <v>0.02451807063156741</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.06212252899000084</v>
+        <v>-0.3426756855005496</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0.03120863769056276</v>
+        <v>0.1289431415674661</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.01972747834332773</v>
+        <v>-0.02438071221644576</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.04044579292002434</v>
+        <v>0.299744021867575</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0.009380299319823777</v>
+        <v>0.1108924342578643</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.006640524065870794</v>
+        <v>-0.05262521887662972</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02596359872835322</v>
+        <v>0.05836825772571191</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.0175961774419945</v>
+        <v>0.03569343343278123</v>
       </c>
       <c r="EC6" t="n">
         <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
         <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03316562195992637</v>
+        <v>0.008637196109867538</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.006988557844517638</v>
+        <v>0.07716635748222229</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0.03278047575998403</v>
+        <v>-0.02170033143855108</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.04809319877261075</v>
+        <v>0.01062339470333414</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.01525895057414647</v>
+        <v>0.1273061877361047</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0.0597058249587458</v>
+        <v>0.00522985843854511</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3742,19 +3742,19 @@
         <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.0177159388004042</v>
+        <v>-0.02781640073180372</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.0004918005193479938</v>
+        <v>0.03370187651089755</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0.004963347822313994</v>
+        <v>-0.06726004257797706</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
@@ -3766,55 +3766,55 @@
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.01272701041483262</v>
+        <v>-0.004170073748746176</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.03265461187132448</v>
+        <v>0.009454991450385839</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.04124453836370136</v>
+        <v>-0.05550217719841265</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP6" t="n">
         <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.02284353709517858</v>
+        <v>-0.06393691973657653</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0399239734068358</v>
+        <v>0.3490708501829384</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0.01869406622529505</v>
+        <v>0.01249964124543795</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,28 +3823,28 @@
         <v>0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.0256855470206284</v>
+        <v>-0.04461860299545885</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.03148047607441778</v>
+        <v>0.02145040487476449</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
         <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W7" t="n">
         <v>-0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
         <v>-0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO7" t="n">
         <v>-0</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
         <v>-0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG7" t="n">
         <v>-0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
         <v>-0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
         <v>-0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
         <v>-0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
         <v>-0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
         <v>-0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ7" t="n">
         <v>-0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
         <v>-0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
         <v>-0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
         <v>-0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
         <v>-0</v>
@@ -4413,6 +4413,1144 @@
         <v>0</v>
       </c>
       <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1941221657738943</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01352084976212702</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.001231008452728415</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1639193403764561</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02563896086393719</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.005348697604365681</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0338088286721498</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.0001286439036733627</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.004411637109690784</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.007861636187328143</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0001936235342535453</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.008718085302820755</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.004498281181666844</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.01423142065272257</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.02052892191560842</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1433464733239452</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.01610059463785047</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.02362281728517154</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.0269772988088572</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.04128744457888867</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.03533513357750662</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.03151259446750408</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.01089316968993788</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.05985145545882752</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.07101129411593149</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.006185354533939252</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.02044551864903336</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>-0.036029367235816</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.006695485095157379</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>-0.002037808122012321</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>-0.02575021601505406</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.002039282347081287</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.008627875087522661</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-0.03331584665526162</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.01522315117225857</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.002530184921679344</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-0.002698860338119854</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.02788792031944015</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-0.001442235299944034</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.001998942451631391</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.01322953316462337</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-0.01162439758478888</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>-0.0248372977589637</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>-0.004562804219416848</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.009148510241729439</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>-0.04111667242520693</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.01759493017245366</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.01523773415946861</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>-0.0174789272534932</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.008419366208180205</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0.00567445250835532</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>-0.03244033820269195</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0.003536249517849009</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0.005435198618181883</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0.003223049689850933</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0.007821458184664523</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>-0.02385333132935093</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>-0.03663274873710363</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0.04381895463477087</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0.0006362065123072965</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0.01604643565835268</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>-0.03004724248940833</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" t="n">
         <v>0</v>
       </c>
     </row>
